--- a/Packet/PacketData/NPC.xlsx
+++ b/Packet/PacketData/NPC.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="会話開始" sheetId="1" state="visible" r:id="rId2"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="16">
   <si>
     <t xml:space="preserve">$CLASS_NAME$</t>
   </si>
@@ -50,6 +50,9 @@
     <t xml:space="preserve">MasterId</t>
   </si>
   <si>
+    <t xml:space="preserve">ＮＰＣマスタＩＤ</t>
+  </si>
+  <si>
     <t xml:space="preserve">]</t>
   </si>
   <si>
@@ -63,6 +66,9 @@
   </si>
   <si>
     <t xml:space="preserve">Index</t>
+  </si>
+  <si>
+    <t xml:space="preserve">選択肢インデックス</t>
   </si>
 </sst>
 </file>
@@ -172,10 +178,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C4" activeCellId="0" sqref="C4"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D5" activeCellId="0" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -219,6 +225,9 @@
       <c r="C4" s="0" t="s">
         <v>8</v>
       </c>
+      <c r="D4" s="0" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1"/>
@@ -230,7 +239,7 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -251,10 +260,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D5" activeCellId="0" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -267,7 +276,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -275,7 +284,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -291,10 +300,13 @@
         <v>6</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
